--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2022/Xuất Kho T9/XK_LK_30HUB_080922.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2022/Xuất Kho T9/XK_LK_30HUB_080922.xlsx
@@ -22,14 +22,14 @@
     <sheet name="BM.06" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">BM.07!$A$1:$G$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">BM.07!$A$1:$G$43</definedName>
   </definedNames>
   <calcPr calcId="152511" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="149">
   <si>
     <t>STT</t>
   </si>
@@ -441,70 +441,34 @@
     <t>VT_RES_R0603 5.6K</t>
   </si>
   <si>
-    <t>VT_RES_R0603 10K</t>
-  </si>
-  <si>
     <t>VT_CONN_2*2 (M3045)</t>
   </si>
   <si>
     <t>Hà Nội, Ngày 09 Tháng 09 Năm 2022</t>
   </si>
   <si>
-    <t>VT_CAP_C0603 2.2uF</t>
-  </si>
-  <si>
     <t>VT_CAP_C0603 10uF</t>
   </si>
   <si>
     <t>VT_DIODE_ SMAJ30A</t>
   </si>
   <si>
-    <t>VT_LED_1206_Green</t>
-  </si>
-  <si>
     <t>VT_LED_1206_Red</t>
   </si>
   <si>
-    <t>VT_Fuse_60V - 750mA</t>
-  </si>
-  <si>
-    <t>VT_RES_R0603 15K</t>
-  </si>
-  <si>
-    <t>VT_RES_R0603 82K</t>
-  </si>
-  <si>
     <t>VT_RES_R0603 1M</t>
   </si>
   <si>
     <t>VT_IC_TLV73333</t>
   </si>
   <si>
-    <t>VT_IC_HT7463A</t>
-  </si>
-  <si>
     <t>VT_IC_HT32F52253_48 LQFP-A</t>
   </si>
   <si>
     <t>VT_IC_MAX3232IPW</t>
   </si>
   <si>
-    <t>PCB HUB VACC-H1 V1.3</t>
-  </si>
-  <si>
-    <t>Hộp nhựa 86x56x19mm</t>
-  </si>
-  <si>
     <t>HH_BO_DAY_BD-04</t>
-  </si>
-  <si>
-    <t>Dây silicon chịu nhiệt 22AWG Đỏ 0.3m</t>
-  </si>
-  <si>
-    <t>Dây silicon chịu nhiệt 22AWG Đen 0.3m</t>
-  </si>
-  <si>
-    <t>Decal VACC-H1</t>
   </si>
   <si>
     <t>Xuất kho linh kiện gia công thử nghiệm 30 thiết bị HUB V.1.3</t>
@@ -1945,13 +1909,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>488016</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>307040</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3398,10 +3362,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M63"/>
+  <dimension ref="A2:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3465,7 +3429,7 @@
         <v>125</v>
       </c>
       <c r="E6" s="138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F6" s="138"/>
       <c r="G6" s="138"/>
@@ -3513,7 +3477,7 @@
       </c>
       <c r="E9" s="88"/>
       <c r="F9" s="141" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G9" s="68"/>
     </row>
@@ -3539,13 +3503,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="87" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="86" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="90">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E11" s="88"/>
       <c r="F11" s="85"/>
@@ -3556,13 +3520,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="87" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C12" s="86" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="90">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E12" s="88"/>
       <c r="F12" s="85"/>
@@ -3573,7 +3537,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="86" t="s">
         <v>93</v>
@@ -3590,13 +3554,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="87" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C14" s="86" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="90">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E14" s="88"/>
       <c r="F14" s="85"/>
@@ -3607,13 +3571,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="87" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C15" s="86" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="90">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E15" s="88"/>
       <c r="F15" s="85"/>
@@ -3624,13 +3588,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="87" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C16" s="86" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="90">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E16" s="88"/>
       <c r="F16" s="85"/>
@@ -3641,13 +3605,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="87" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C17" s="86" t="s">
         <v>93</v>
       </c>
       <c r="D17" s="90">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E17" s="88"/>
       <c r="F17" s="85"/>
@@ -3658,7 +3622,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="87" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C18" s="86" t="s">
         <v>93</v>
@@ -3675,7 +3639,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="87" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C19" s="86" t="s">
         <v>93</v>
@@ -3692,13 +3656,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="87" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C20" s="86" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="90">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E20" s="88"/>
       <c r="F20" s="85"/>
@@ -3709,13 +3673,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="87" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C21" s="86" t="s">
         <v>93</v>
       </c>
       <c r="D21" s="90">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E21" s="88"/>
       <c r="F21" s="85"/>
@@ -3726,13 +3690,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="87" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C22" s="86" t="s">
         <v>93</v>
       </c>
       <c r="D22" s="90">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="E22" s="88"/>
       <c r="F22" s="85"/>
@@ -3743,13 +3707,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="87" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C23" s="86" t="s">
         <v>93</v>
       </c>
       <c r="D23" s="90">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E23" s="88"/>
       <c r="F23" s="85"/>
@@ -3760,13 +3724,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="87" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C24" s="86" t="s">
         <v>93</v>
       </c>
       <c r="D24" s="90">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E24" s="88"/>
       <c r="F24" s="85"/>
@@ -3777,13 +3741,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="87" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C25" s="86" t="s">
         <v>93</v>
       </c>
       <c r="D25" s="90">
-        <v>420</v>
+        <v>60</v>
       </c>
       <c r="E25" s="88"/>
       <c r="F25" s="85"/>
@@ -3794,13 +3758,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C26" s="86" t="s">
         <v>93</v>
       </c>
       <c r="D26" s="90">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E26" s="88"/>
       <c r="F26" s="85"/>
@@ -3811,7 +3775,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C27" s="86" t="s">
         <v>93</v>
@@ -3823,353 +3787,149 @@
       <c r="F27" s="85"/>
       <c r="G27" s="78"/>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="68">
-        <v>20</v>
-      </c>
-      <c r="B28" s="87" t="s">
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="67"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="79"/>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="67"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="79"/>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="61"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="127"/>
+      <c r="C31" s="127" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="90">
-        <v>30</v>
-      </c>
-      <c r="E28" s="88"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="78"/>
-    </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="68">
-        <v>21</v>
-      </c>
-      <c r="B29" s="87" t="s">
+      <c r="D31" s="127"/>
+      <c r="E31" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="129"/>
+      <c r="G31" s="83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="128"/>
+      <c r="G32" s="82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="62"/>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="62"/>
+    </row>
+    <row r="35" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="62"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="62"/>
+    </row>
+    <row r="36" spans="1:7" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="65"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+    </row>
+    <row r="37" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="62"/>
+    </row>
+    <row r="38" spans="1:7" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="128" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="128"/>
+      <c r="C38" s="128" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="90">
-        <v>30</v>
-      </c>
-      <c r="E29" s="88"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="78"/>
-    </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="68">
-        <v>22</v>
-      </c>
-      <c r="B30" s="87" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="90">
-        <v>30</v>
-      </c>
-      <c r="E30" s="88"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="78"/>
-    </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="68">
-        <v>23</v>
-      </c>
-      <c r="B31" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="90">
-        <v>30</v>
-      </c>
-      <c r="E31" s="88"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="78"/>
-    </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="68">
-        <v>24</v>
-      </c>
-      <c r="B32" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="90">
-        <v>60</v>
-      </c>
-      <c r="E32" s="88"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="78"/>
-    </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="68">
-        <v>25</v>
-      </c>
-      <c r="B33" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="90">
-        <v>90</v>
-      </c>
-      <c r="E33" s="88"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="78"/>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="68">
-        <v>26</v>
-      </c>
-      <c r="B34" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="90">
-        <v>30</v>
-      </c>
-      <c r="E34" s="88"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="78"/>
-    </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="68">
-        <v>27</v>
-      </c>
-      <c r="B35" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="90">
-        <v>30</v>
-      </c>
-      <c r="E35" s="88"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="78"/>
-    </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="68">
-        <v>28</v>
-      </c>
-      <c r="B36" s="87" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="90">
-        <v>30</v>
-      </c>
-      <c r="E36" s="88"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="78"/>
-    </row>
-    <row r="37" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="68">
-        <v>29</v>
-      </c>
-      <c r="B37" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="90">
-        <v>30</v>
-      </c>
-      <c r="E37" s="88"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="78"/>
-    </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="68">
-        <v>30</v>
-      </c>
-      <c r="B38" s="87" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="90">
-        <v>30</v>
-      </c>
-      <c r="E38" s="88"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="78"/>
-    </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="68">
-        <v>31</v>
-      </c>
-      <c r="B39" s="87" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="90">
-        <v>30</v>
-      </c>
-      <c r="E39" s="88"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="78"/>
-    </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="67"/>
-      <c r="B40" s="139"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="139"/>
-      <c r="G40" s="79"/>
-    </row>
-    <row r="41" spans="1:7" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="67"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="79"/>
-    </row>
-    <row r="42" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="61"/>
-      <c r="B42" s="137"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-    </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="127" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="127"/>
-      <c r="C43" s="127" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" s="127"/>
-      <c r="E43" s="129" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" s="129"/>
-      <c r="G43" s="83" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="128"/>
-      <c r="C44" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="128"/>
-      <c r="G44" s="82" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="62"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="62"/>
-    </row>
-    <row r="46" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="62"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="62"/>
-    </row>
-    <row r="47" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="62"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="62"/>
-    </row>
-    <row r="48" spans="1:7" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="65"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="128"/>
-      <c r="G48" s="128"/>
-    </row>
-    <row r="49" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="62"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="62"/>
-    </row>
-    <row r="50" spans="1:7" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="128" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="128"/>
-      <c r="C50" s="128" t="s">
-        <v>160</v>
-      </c>
-      <c r="D50" s="128"/>
-      <c r="E50" s="130" t="s">
+      <c r="D38" s="128"/>
+      <c r="E38" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="F50" s="130"/>
-      <c r="G50" s="82" t="s">
+      <c r="F38" s="130"/>
+      <c r="G38" s="82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
-      <c r="G52" s="126"/>
-    </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="C56" s="125" t="s">
+    <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="126"/>
+    </row>
+    <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="C44" s="125" t="s">
         <v>109</v>
       </c>
-      <c r="D56" s="125"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="125"/>
-      <c r="G56" s="125"/>
-    </row>
-    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="G63" s="84" t="s">
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+    </row>
+    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="7:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G51" s="84" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4177,31 +3937,28 @@
   <mergeCells count="21">
     <mergeCell ref="C2:E4"/>
     <mergeCell ref="A2:B4"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B28:F28"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E38:F38"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0.55118110236220474" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="64" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="32" max="6" man="1"/>
-  </rowBreaks>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
